--- a/Python/Projetos/Bemol/Manipulacao e Analise de Dados/3. Desafio Final/estoria_usuario.xlsx
+++ b/Python/Projetos/Bemol/Manipulacao e Analise de Dados/3. Desafio Final/estoria_usuario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">loja</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Status da Atividade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se valor liquido != valor bruto  gerar mensagem de alerta</t>
   </si>
   <si>
     <t xml:space="preserve">1. Leitura de arquivos</t>
@@ -209,10 +206,10 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
@@ -247,17 +244,15 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
@@ -270,7 +265,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
@@ -283,7 +278,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
@@ -296,7 +291,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
@@ -309,7 +304,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
@@ -322,7 +317,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
@@ -335,7 +330,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
@@ -348,7 +343,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
@@ -361,7 +356,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
